--- a/spec/files/properties/success.xlsx
+++ b/spec/files/properties/success.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">tipo-propiedad</t>
   </si>
   <si>
-    <t xml:space="preserve">localización</t>
+    <t xml:space="preserve">localizacion</t>
   </si>
   <si>
     <t xml:space="preserve">Propio#pro-own</t>
@@ -119,6 +119,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,6 +155,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -216,28 +218,32 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,107 +434,107 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.47265625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="32.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -554,103 +560,103 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.47265625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
